--- a/input/input_file.xlsx
+++ b/input/input_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeapym/Documents/Documents/Python Projects/BatteryDispatcherVer2.0/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCED409-73E9-9143-87E0-D1E985ACB646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA56F6-2691-3C41-8632-5AF688953C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{F36D2D0E-7AAA-479B-B503-6896AFA20F07}"/>
+    <workbookView xWindow="1440" yWindow="2480" windowWidth="28800" windowHeight="16280" xr2:uid="{F36D2D0E-7AAA-479B-B503-6896AFA20F07}"/>
   </bookViews>
   <sheets>
     <sheet name="Timeseries data" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EEDC911-0AAC-4771-92C7-C4FF6BDB2FE3}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -447,7 +450,7 @@
     <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>43101</v>
       </c>
@@ -472,7 +475,7 @@
         <v>48.47</v>
       </c>
       <c r="C2">
-        <v>25506</v>
+        <v>12753</v>
       </c>
       <c r="D2">
         <v>10715.5</v>
@@ -481,7 +484,7 @@
         <v>1.52E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>43101.020833333336</v>
       </c>
@@ -489,7 +492,7 @@
         <v>49.81</v>
       </c>
       <c r="C3">
-        <v>26267</v>
+        <v>13133.5</v>
       </c>
       <c r="D3">
         <v>10650.5</v>
@@ -498,7 +501,7 @@
         <v>8.5100000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>43101.041666666664</v>
       </c>
@@ -506,7 +509,7 @@
         <v>53.65</v>
       </c>
       <c r="C4">
-        <v>26122</v>
+        <v>13061</v>
       </c>
       <c r="D4">
         <v>10560</v>
@@ -515,7 +518,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>43101.0625</v>
       </c>
@@ -523,7 +526,7 @@
         <v>52.48</v>
       </c>
       <c r="C5">
-        <v>25152</v>
+        <v>12576</v>
       </c>
       <c r="D5">
         <v>10497</v>
@@ -532,7 +535,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43101.083333333336</v>
       </c>
@@ -540,7 +543,7 @@
         <v>47.25</v>
       </c>
       <c r="C6">
-        <v>24292</v>
+        <v>12146</v>
       </c>
       <c r="D6">
         <v>10464</v>
@@ -549,7 +552,7 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43101.104166666664</v>
       </c>
@@ -557,7 +560,7 @@
         <v>47.18</v>
       </c>
       <c r="C7">
-        <v>23683</v>
+        <v>11841.5</v>
       </c>
       <c r="D7">
         <v>10430</v>
@@ -566,7 +569,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43101.125</v>
       </c>
@@ -574,7 +577,7 @@
         <v>40.24</v>
       </c>
       <c r="C8">
-        <v>22860</v>
+        <v>11430</v>
       </c>
       <c r="D8">
         <v>10358.75</v>
@@ -583,7 +586,7 @@
         <v>5.8500000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43101.145833333336</v>
       </c>
@@ -591,16 +594,16 @@
         <v>38.56</v>
       </c>
       <c r="C9">
-        <v>21939</v>
+        <v>8569.5</v>
       </c>
       <c r="D9">
-        <v>10301.5</v>
+        <v>11301.5</v>
       </c>
       <c r="E9">
         <v>6.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43101.166666666664</v>
       </c>
@@ -608,16 +611,16 @@
         <v>37.549999999999997</v>
       </c>
       <c r="C10">
-        <v>21419</v>
+        <v>8609.5</v>
       </c>
       <c r="D10">
-        <v>10208.5</v>
+        <v>11208.5</v>
       </c>
       <c r="E10">
         <v>1.03E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43101.1875</v>
       </c>
@@ -625,7 +628,7 @@
         <v>36.56</v>
       </c>
       <c r="C11">
-        <v>21139</v>
+        <v>10569.5</v>
       </c>
       <c r="D11">
         <v>10061.25</v>
@@ -633,8 +636,9 @@
       <c r="E11">
         <v>6.3299999999999997E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43101.208333333336</v>
       </c>
@@ -642,7 +646,7 @@
         <v>39.25</v>
       </c>
       <c r="C12">
-        <v>21184</v>
+        <v>10592</v>
       </c>
       <c r="D12">
         <v>9998.25</v>
@@ -651,7 +655,7 @@
         <v>6.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43101.229166666664</v>
       </c>
@@ -659,7 +663,7 @@
         <v>41.23</v>
       </c>
       <c r="C13">
-        <v>21462</v>
+        <v>10731</v>
       </c>
       <c r="D13">
         <v>9903.5</v>
@@ -668,7 +672,7 @@
         <v>6.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43101.25</v>
       </c>
@@ -676,7 +680,7 @@
         <v>45.68</v>
       </c>
       <c r="C14">
-        <v>22335</v>
+        <v>8167.5</v>
       </c>
       <c r="D14">
         <v>9704.25</v>
@@ -685,7 +689,7 @@
         <v>4.9100000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43101.270833333336</v>
       </c>
@@ -693,7 +697,7 @@
         <v>44.83</v>
       </c>
       <c r="C15">
-        <v>22806</v>
+        <v>8403</v>
       </c>
       <c r="D15">
         <v>9510.75</v>
@@ -702,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43101.291666666664</v>
       </c>
@@ -710,7 +714,7 @@
         <v>48.87</v>
       </c>
       <c r="C16">
-        <v>23410</v>
+        <v>11705</v>
       </c>
       <c r="D16">
         <v>9365.75</v>
@@ -727,7 +731,7 @@
         <v>50.73</v>
       </c>
       <c r="C17">
-        <v>23604</v>
+        <v>11802</v>
       </c>
       <c r="D17">
         <v>9234</v>
@@ -744,7 +748,7 @@
         <v>45.01</v>
       </c>
       <c r="C18">
-        <v>24311</v>
+        <v>12155.5</v>
       </c>
       <c r="D18">
         <v>9063</v>
@@ -761,7 +765,7 @@
         <v>48.87</v>
       </c>
       <c r="C19">
-        <v>25484</v>
+        <v>12742</v>
       </c>
       <c r="D19">
         <v>8811.75</v>
@@ -778,7 +782,7 @@
         <v>44.41</v>
       </c>
       <c r="C20">
-        <v>26885</v>
+        <v>13442.5</v>
       </c>
       <c r="D20">
         <v>8633.25</v>
@@ -795,7 +799,7 @@
         <v>42.59</v>
       </c>
       <c r="C21">
-        <v>28032</v>
+        <v>14016</v>
       </c>
       <c r="D21">
         <v>8434.75</v>
@@ -812,7 +816,7 @@
         <v>46.15</v>
       </c>
       <c r="C22">
-        <v>29224</v>
+        <v>14612</v>
       </c>
       <c r="D22">
         <v>8264</v>
@@ -829,7 +833,7 @@
         <v>46.19</v>
       </c>
       <c r="C23">
-        <v>30161</v>
+        <v>15080.5</v>
       </c>
       <c r="D23">
         <v>8137.5</v>
@@ -846,7 +850,7 @@
         <v>54.83</v>
       </c>
       <c r="C24">
-        <v>31193</v>
+        <v>15596.5</v>
       </c>
       <c r="D24">
         <v>7825.75</v>
@@ -863,7 +867,7 @@
         <v>60.57</v>
       </c>
       <c r="C25">
-        <v>31840</v>
+        <v>15920</v>
       </c>
       <c r="D25">
         <v>7649.75</v>
@@ -880,7 +884,7 @@
         <v>58.75</v>
       </c>
       <c r="C26">
-        <v>32339</v>
+        <v>16169.5</v>
       </c>
       <c r="D26">
         <v>7309.25</v>
@@ -897,7 +901,7 @@
         <v>59.88</v>
       </c>
       <c r="C27">
-        <v>32536</v>
+        <v>16268</v>
       </c>
       <c r="D27">
         <v>7031.25</v>
@@ -914,7 +918,7 @@
         <v>58.03</v>
       </c>
       <c r="C28">
-        <v>32880</v>
+        <v>16440</v>
       </c>
       <c r="D28">
         <v>6834.75</v>
@@ -931,7 +935,7 @@
         <v>59.72</v>
       </c>
       <c r="C29">
-        <v>32803</v>
+        <v>16401.5</v>
       </c>
       <c r="D29">
         <v>6722</v>
@@ -948,7 +952,7 @@
         <v>55.94</v>
       </c>
       <c r="C30">
-        <v>32952</v>
+        <v>16476</v>
       </c>
       <c r="D30">
         <v>6737</v>
@@ -965,7 +969,7 @@
         <v>52.55</v>
       </c>
       <c r="C31">
-        <v>32995</v>
+        <v>16497.5</v>
       </c>
       <c r="D31">
         <v>6768</v>
@@ -982,7 +986,7 @@
         <v>59.43</v>
       </c>
       <c r="C32">
-        <v>33507</v>
+        <v>16753.5</v>
       </c>
       <c r="D32">
         <v>6938.75</v>
@@ -999,7 +1003,7 @@
         <v>61.01</v>
       </c>
       <c r="C33">
-        <v>34416</v>
+        <v>17208</v>
       </c>
       <c r="D33">
         <v>7273.5</v>
@@ -1016,7 +1020,7 @@
         <v>63.07</v>
       </c>
       <c r="C34">
-        <v>35996</v>
+        <v>17998</v>
       </c>
       <c r="D34">
         <v>7707.5</v>
@@ -1033,7 +1037,7 @@
         <v>64.91</v>
       </c>
       <c r="C35">
-        <v>38136</v>
+        <v>19068</v>
       </c>
       <c r="D35">
         <v>8216.5</v>
@@ -1050,7 +1054,7 @@
         <v>63.27</v>
       </c>
       <c r="C36">
-        <v>38708</v>
+        <v>19354</v>
       </c>
       <c r="D36">
         <v>8754</v>
@@ -1067,7 +1071,7 @@
         <v>61.55</v>
       </c>
       <c r="C37">
-        <v>38356</v>
+        <v>19178</v>
       </c>
       <c r="D37">
         <v>9098.75</v>
@@ -1084,7 +1088,7 @@
         <v>58.82</v>
       </c>
       <c r="C38">
-        <v>37421</v>
+        <v>18710.5</v>
       </c>
       <c r="D38">
         <v>9509.5</v>
@@ -1101,7 +1105,7 @@
         <v>55.67</v>
       </c>
       <c r="C39">
-        <v>36757</v>
+        <v>18378.5</v>
       </c>
       <c r="D39">
         <v>9790.75</v>
@@ -1118,7 +1122,7 @@
         <v>46.13</v>
       </c>
       <c r="C40">
-        <v>35598</v>
+        <v>17799</v>
       </c>
       <c r="D40">
         <v>10001</v>
@@ -1135,7 +1139,7 @@
         <v>47.03</v>
       </c>
       <c r="C41">
-        <v>34449</v>
+        <v>17224.5</v>
       </c>
       <c r="D41">
         <v>10138.5</v>
@@ -1152,7 +1156,7 @@
         <v>48.91</v>
       </c>
       <c r="C42">
-        <v>33469</v>
+        <v>16734.5</v>
       </c>
       <c r="D42">
         <v>10235.25</v>
@@ -1169,7 +1173,7 @@
         <v>45.87</v>
       </c>
       <c r="C43">
-        <v>32154</v>
+        <v>16077</v>
       </c>
       <c r="D43">
         <v>10319.25</v>
@@ -1186,7 +1190,7 @@
         <v>46.95</v>
       </c>
       <c r="C44">
-        <v>31060</v>
+        <v>15530</v>
       </c>
       <c r="D44">
         <v>10410.75</v>
@@ -1203,7 +1207,7 @@
         <v>46.71</v>
       </c>
       <c r="C45">
-        <v>29608</v>
+        <v>14804</v>
       </c>
       <c r="D45">
         <v>10310.75</v>
@@ -1220,7 +1224,7 @@
         <v>46.08</v>
       </c>
       <c r="C46">
-        <v>28119</v>
+        <v>14059.5</v>
       </c>
       <c r="D46">
         <v>10226.75</v>
@@ -1237,7 +1241,7 @@
         <v>45.77</v>
       </c>
       <c r="C47">
-        <v>26747</v>
+        <v>13373.5</v>
       </c>
       <c r="D47">
         <v>10086.5</v>
@@ -1254,7 +1258,7 @@
         <v>45.25</v>
       </c>
       <c r="C48">
-        <v>25181</v>
+        <v>12590.5</v>
       </c>
       <c r="D48">
         <v>10022.25</v>
@@ -1271,7 +1275,7 @@
         <v>39.33</v>
       </c>
       <c r="C49">
-        <v>24092</v>
+        <v>12046</v>
       </c>
       <c r="D49">
         <v>9892.25</v>
